--- a/niveau3/taak02/Book1.xlsx
+++ b/niveau3/taak02/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\EagleDev\database-design\niveau3\taak02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE7433-9AD2-49DC-B7C2-9EC2285EC40A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2CFDA-04AC-44BE-A7EA-BDAB425C0F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B05D8C4C-515C-4511-854C-5FFD52818757}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B05D8C4C-515C-4511-854C-5FFD52818757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,111 +216,6 @@
         <a:xfrm>
           <a:off x="85725" y="0"/>
           <a:ext cx="2949196" cy="4762913"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>84144</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171820</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D2BBAE-D593-41B8-8CE2-2A96AA70F936}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3143250"/>
-          <a:ext cx="3741744" cy="4267570"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>305196</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>84091</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29A7D29-3780-4E61-A2D8-B7F20292B747}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4572396" cy="3132091"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -631,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EBAB55-4DB1-49A1-B556-BB03C4149641}">
   <dimension ref="F1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -815,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CA2E6D-E612-489B-B208-A6D8FD633697}">
   <dimension ref="I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -834,6 +729,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>